--- a/数据/大屏移动端/移动端线稿.xlsx
+++ b/数据/大屏移动端/移动端线稿.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Documents\GitHub\itaiping\数据\大屏移动端\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ABB2A3-A698-403E-913C-B081AB62FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B82A4C-544A-4C69-8DED-E594DB4A16E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -230,6 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,9 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,7 +753,7 @@
             <c:numRef>
               <c:f>[1]渠道!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.48</c:v>
@@ -1251,6 +1252,469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8556-450F-A378-7312271B0F5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1293780160"/>
+        <c:axId val="1293783072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1293780160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1293783072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1293783072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1293780160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8556-450F-A378-7312271B0F5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1293780160"/>
+        <c:axId val="1293783072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1293780160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1293783072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1293783072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1293780160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23B0-4122-9714-AB34A88A20FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1293780160"/>
+        <c:axId val="1293783072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1293780160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1293783072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1293783072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1293780160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -1368,6 +1832,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2933,6 +3517,1554 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3988,13 +6120,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>276269</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>60783</xdr:rowOff>
+      <xdr:rowOff>34201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>443909</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>175083</xdr:rowOff>
+      <xdr:rowOff>148501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4009,8 +6141,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5167246" y="4730248"/>
-          <a:ext cx="167640" cy="300370"/>
+          <a:off x="5167246" y="5058085"/>
+          <a:ext cx="167640" cy="300369"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -4422,6 +6554,190 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256954</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>34488</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100567</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="图表 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4786D997-522F-43FD-94E3-46E4EA393865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>221512</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>230374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>610418</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="图表 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD2521-1F78-4406-61D3-A70AD0DE755B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>150983</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>56174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51923</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA4F17F-7005-55C5-39EA-CAE83C4B82CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1985099" y="9749523"/>
+          <a:ext cx="1735057" cy="404569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="fr-FR" sz="1400"/>
+            <a:t>本月新增：</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C7F9D5-D0F2-EEE8-475F-6A3B015BDDCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4471,146 +6787,12 @@
           <cell r="B1" t="str">
             <v>95589渠道</v>
           </cell>
-          <cell r="C1" t="str">
-            <v>其他渠道</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>4月</v>
-          </cell>
-          <cell r="B2">
-            <v>44571</v>
-          </cell>
-          <cell r="C2">
-            <v>24480</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>5月</v>
-          </cell>
-          <cell r="B3">
-            <v>44319</v>
-          </cell>
-          <cell r="C3">
-            <v>25144</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>6月</v>
-          </cell>
-          <cell r="B4">
-            <v>44428</v>
-          </cell>
-          <cell r="C4">
-            <v>24899</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>7月</v>
-          </cell>
-          <cell r="B5">
-            <v>44596</v>
-          </cell>
-          <cell r="C5">
-            <v>23269</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>8月</v>
-          </cell>
-          <cell r="B6">
-            <v>44580</v>
-          </cell>
-          <cell r="C6">
-            <v>24455</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="B1" t="str">
             <v>累计申请用户数（人）</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>完成申请用户数（人）</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>累计放款用户数（人）</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>4月</v>
-          </cell>
-          <cell r="B2">
-            <v>300073</v>
-          </cell>
-          <cell r="C2">
-            <v>199311</v>
-          </cell>
-          <cell r="D2">
-            <v>16693</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>5月</v>
-          </cell>
-          <cell r="B3">
-            <v>319481</v>
-          </cell>
-          <cell r="C3">
-            <v>207428</v>
-          </cell>
-          <cell r="D3">
-            <v>16935</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>6月</v>
-          </cell>
-          <cell r="B4">
-            <v>333964</v>
-          </cell>
-          <cell r="C4">
-            <v>217896</v>
-          </cell>
-          <cell r="D4">
-            <v>17315</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>7月</v>
-          </cell>
-          <cell r="B5">
-            <v>348984</v>
-          </cell>
-          <cell r="C5">
-            <v>229178</v>
-          </cell>
-          <cell r="D5">
-            <v>17842</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>8月</v>
-          </cell>
-          <cell r="B6">
-            <v>363297</v>
-          </cell>
-          <cell r="C6">
-            <v>239495</v>
-          </cell>
-          <cell r="D6">
-            <v>18489</v>
           </cell>
         </row>
       </sheetData>
@@ -4624,12 +6806,6 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>上海</v>
-          </cell>
-          <cell r="B2">
-            <v>23.413103684704598</v>
-          </cell>
           <cell r="C2" t="str">
             <v>上海</v>
           </cell>
@@ -4638,12 +6814,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>江苏</v>
-          </cell>
-          <cell r="B3">
-            <v>23.030525486367001</v>
-          </cell>
           <cell r="C3" t="str">
             <v>江苏</v>
           </cell>
@@ -4652,12 +6822,6 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>广东</v>
-          </cell>
-          <cell r="B4">
-            <v>6.94976675563277</v>
-          </cell>
           <cell r="C4" t="str">
             <v>广东</v>
           </cell>
@@ -4666,73 +6830,11 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>山东</v>
-          </cell>
-          <cell r="B5">
-            <v>6.7099710845190002</v>
-          </cell>
           <cell r="C5" t="str">
             <v>其它</v>
           </cell>
           <cell r="D5">
             <v>46.606604073295635</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>四川</v>
-          </cell>
-          <cell r="B6">
-            <v>4.4998483328277796</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>浙江</v>
-          </cell>
-          <cell r="B7">
-            <v>3.24154926670268</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>湖北</v>
-          </cell>
-          <cell r="B8">
-            <v>2.9549970294772798</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>福建</v>
-          </cell>
-          <cell r="B9">
-            <v>2.87431727336527</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>河南</v>
-          </cell>
-          <cell r="B10">
-            <v>2.6961756539188499</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>广西</v>
-          </cell>
-          <cell r="B11">
-            <v>2.6704191578074501</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>其他</v>
-          </cell>
-          <cell r="B12">
-            <v>20.959326274677299</v>
           </cell>
         </row>
       </sheetData>
@@ -5006,8 +7108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="86" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5029,44 +7131,44 @@
     </row>
     <row r="3" spans="3:10">
       <c r="C3" s="4"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="3:10">
       <c r="C4" s="4"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="3:10">
       <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="15" thickBot="1">
       <c r="C6" s="4"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="3:10" ht="15" thickBot="1">
@@ -5081,14 +7183,14 @@
     </row>
     <row r="8" spans="3:10" ht="16.2" thickBot="1">
       <c r="C8" s="4"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="3:10">
@@ -5107,142 +7209,142 @@
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="4"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="3:10" ht="7.2" customHeight="1">
       <c r="C12" s="4"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="4"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" s="4"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="3:10" ht="9.6" customHeight="1">
       <c r="C15" s="4"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="3:10" ht="57" customHeight="1">
       <c r="C16" s="4"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="3:10">
       <c r="C17" s="4"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="3:10">
       <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="3:10" ht="13.2" customHeight="1">
       <c r="C20" s="4"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="3:10" ht="4.2" hidden="1" customHeight="1">
       <c r="C21" s="4"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="3:10" hidden="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="3:10" hidden="1">
       <c r="C23" s="4"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="3:10" ht="11.4" customHeight="1" thickBot="1">
       <c r="C24" s="4"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="3:10" ht="15" thickBot="1">
@@ -5431,22 +7533,22 @@
     </row>
     <row r="44" spans="3:10">
       <c r="C44" s="4"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="3:10" ht="15" thickBot="1">
       <c r="C45" s="4"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="3:10">
@@ -5621,12 +7723,12 @@
     </row>
     <row r="63" spans="3:10">
       <c r="C63" s="4"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="3:10">
@@ -5701,4 +7803,40 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BFE76F-5B47-42D1-9F28-5EFD9DDB357D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据/大屏移动端/移动端线稿.xlsx
+++ b/数据/大屏移动端/移动端线稿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Documents\GitHub\itaiping\数据\大屏移动端\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C5C17E-C823-4F51-9DB8-5D1AA39790F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7239E12F-EA06-4B2B-A6C0-1C092F061F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,13 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
     <sheet name="日活" sheetId="3" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$15:$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$B$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$B$15:$B$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$C$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$C$15:$C$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>太平金服运营指标看板</t>
   </si>
@@ -135,9 +139,6 @@
   </si>
   <si>
     <t>蔚能电池保费规模</t>
-  </si>
-  <si>
-    <t>本月增长</t>
   </si>
   <si>
     <t>总数</t>
@@ -426,11 +427,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{766AF7AC-4D29-4EA8-9EDD-A622CAA0911D}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -820,37 +817,37 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>90</c:v>
+                        <c:v>80</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>70</c:v>
+                        <c:v>80</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>70</c:v>
+                        <c:v>120</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>70</c:v>
+                        <c:v>110</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>130</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>110</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>50</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>50</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>120</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>150</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1013,37 +1010,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3620</c:v>
+                  <c:v>1370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2350</c:v>
+                  <c:v>2710</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4170</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1550</c:v>
+                  <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>1830</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4200</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3240</c:v>
+                  <c:v>3190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1710</c:v>
+                  <c:v>2310</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2170</c:v>
+                  <c:v>4180</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4220</c:v>
+                  <c:v>2610</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1320</c:v>
+                  <c:v>3310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,77 +1334,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FEE2-41CD-8FF5-BD928E61F969}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>本月增长</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$N$3:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>蔚能电池营业收入</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>台州利民保投人数</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>台州利民保营业收入</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>蔚能电池保费规模</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$P$3:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FEE2-41CD-8FF5-BD928E61F969}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1922,6 +1848,20 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2477,16 +2417,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>571</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>459</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,8 +2683,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
+      <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2770,7 +2709,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet3!$A$15:$A$20</c:f>
@@ -2804,22 +2742,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>55.372954906353968</c:v>
+                  <c:v>591.73082399316354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>834.45301866180978</c:v>
+                  <c:v>892.97732063778881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1145.7833964069684</c:v>
+                  <c:v>1062.6918721343793</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>970.59591655933889</c:v>
+                  <c:v>179.81255615458787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>290.0706161020355</c:v>
+                  <c:v>1056.6820335244515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.767765292671168</c:v>
+                  <c:v>1133.2829610170195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,7 +2791,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet3!$A$15:$A$20</c:f>
@@ -2887,22 +2824,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2723.2321684191061</c:v>
+                  <c:v>1125.7766455816948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2053.754336546403</c:v>
+                  <c:v>1836.3292034830304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2033.9497694532818</c:v>
+                  <c:v>725.31596230793457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2488.4049843460893</c:v>
+                  <c:v>4167.1045786301211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3202.5332462055899</c:v>
+                  <c:v>501.50673844948921</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3152.7196310967965</c:v>
+                  <c:v>1501.742853255945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,11 +2858,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="1624307936"/>
         <c:axId val="1624305856"/>
-      </c:barChart>
+      </c:areaChart>
       <c:catAx>
         <c:axId val="1624307936"/>
         <c:scaling>
@@ -3031,7 +2966,7 @@
         </c:txPr>
         <c:crossAx val="1624307936"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3123,6 +3058,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3198,77 +3163,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D711-4CBF-8BF0-3FDB01EE7DBD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>本月增长</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$N$3:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>蔚能电池营业收入</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>台州利民保投人数</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>台州利民保营业收入</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>蔚能电池保费规模</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$P$3:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D711-4CBF-8BF0-3FDB01EE7DBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3798,37 +3692,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4033,37 +3927,37 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>3620</c:v>
+                        <c:v>1370</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2350</c:v>
+                        <c:v>2710</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4170</c:v>
+                        <c:v>2140</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1550</c:v>
+                        <c:v>2830</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1400</c:v>
+                        <c:v>1830</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>4200</c:v>
+                        <c:v>1380</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>3240</c:v>
+                        <c:v>3190</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1710</c:v>
+                        <c:v>2310</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2170</c:v>
+                        <c:v>4180</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>4220</c:v>
+                        <c:v>2610</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>1320</c:v>
+                        <c:v>3310</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4469,13 +4363,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>863.15162536996752</c:v>
+                  <c:v>995.25365471782106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.894720895942797</c:v>
+                  <c:v>148.10551317125413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.95365373408973</c:v>
+                  <c:v>116.64083211092485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,15 +4560,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]渠道!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>比例</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>比例</c:v>
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
@@ -4815,39 +4701,33 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>[1]渠道!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>95589</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>太平通</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>房贷</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>95589</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>太平通</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>房贷</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[1]渠道!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.48</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.08</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.44</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5125,13 +5005,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21787.714325323737</c:v>
+                  <c:v>21097.348185360224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2362.6665789985695</c:v>
+                  <c:v>1360.3876719954717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5799.6190956776909</c:v>
+                  <c:v>5402.2641426443051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5433,37 +5313,37 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>90</c:v>
+                        <c:v>80</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>70</c:v>
+                        <c:v>80</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>70</c:v>
+                        <c:v>120</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>70</c:v>
+                        <c:v>110</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>130</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>110</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>50</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>50</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>120</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>150</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5626,37 +5506,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3620</c:v>
+                  <c:v>1370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2350</c:v>
+                  <c:v>2710</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4170</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1550</c:v>
+                  <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>1830</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4200</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3240</c:v>
+                  <c:v>3190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1710</c:v>
+                  <c:v>2310</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2170</c:v>
+                  <c:v>4180</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4220</c:v>
+                  <c:v>2610</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1320</c:v>
+                  <c:v>3310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,15 +5861,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>占比</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>占比</c:v>
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
@@ -6143,45 +6015,39 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>[1]Sheet2!$C$2:$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>上海</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>江苏</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>广东</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>其它</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>上海</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>江苏</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>广东</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>其它</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet2!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>23.413103684704598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.030525486367001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.94976675563277</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.606604073295635</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>23.413103684704598</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>23.030525486367001</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6.94976675563277</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>46.606604073295635</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6550,13 +6416,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>863.15162536996752</c:v>
+                  <c:v>995.25365471782106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.894720895942797</c:v>
+                  <c:v>148.10551317125413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.95365373408973</c:v>
+                  <c:v>116.64083211092485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6771,13 +6637,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21787.714325323737</c:v>
+                  <c:v>21097.348185360224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2362.6665789985695</c:v>
+                  <c:v>1360.3876719954717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5799.6190956776909</c:v>
+                  <c:v>5402.2641426443051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7074,16 +6940,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>571</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>459</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7369,22 +7235,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>55.372954906353968</c:v>
+                  <c:v>591.73082399316354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>834.45301866180978</c:v>
+                  <c:v>892.97732063778881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1145.7833964069684</c:v>
+                  <c:v>1062.6918721343793</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>970.59591655933889</c:v>
+                  <c:v>179.81255615458787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>290.0706161020355</c:v>
+                  <c:v>1056.6820335244515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.767765292671168</c:v>
+                  <c:v>1133.2829610170195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7452,22 +7318,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2723.2321684191061</c:v>
+                  <c:v>1125.7766455816948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2053.754336546403</c:v>
+                  <c:v>1836.3292034830304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2033.9497694532818</c:v>
+                  <c:v>725.31596230793457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2488.4049843460893</c:v>
+                  <c:v>4167.1045786301211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3202.5332462055899</c:v>
+                  <c:v>501.50673844948921</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3152.7196310967965</c:v>
+                  <c:v>1501.742853255945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7831,37 +7697,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8066,37 +7932,37 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>3620</c:v>
+                        <c:v>1370</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2350</c:v>
+                        <c:v>2710</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4170</c:v>
+                        <c:v>2140</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1550</c:v>
+                        <c:v>2830</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1400</c:v>
+                        <c:v>1830</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>4200</c:v>
+                        <c:v>1380</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>3240</c:v>
+                        <c:v>3190</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1710</c:v>
+                        <c:v>2310</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2170</c:v>
+                        <c:v>4180</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>4220</c:v>
+                        <c:v>2610</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>1320</c:v>
+                        <c:v>3310</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20379,8 +20245,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1452533" y="7864617"/>
-          <a:ext cx="2116669" cy="2419427"/>
+          <a:off x="1446557" y="7887670"/>
+          <a:ext cx="2108345" cy="2447174"/>
           <a:chOff x="1594881" y="5617534"/>
           <a:chExt cx="2348025" cy="2507510"/>
         </a:xfrm>
@@ -21624,8 +21490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4008937" y="11653531"/>
-          <a:ext cx="723682" cy="423979"/>
+          <a:off x="3991648" y="11713509"/>
+          <a:ext cx="720694" cy="428248"/>
           <a:chOff x="3956643" y="9472119"/>
           <a:chExt cx="716211" cy="423979"/>
         </a:xfrm>
@@ -21766,8 +21632,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4007970" y="1905000"/>
-          <a:ext cx="723682" cy="420245"/>
+          <a:off x="3990681" y="1908629"/>
+          <a:ext cx="720694" cy="426221"/>
           <a:chOff x="3956643" y="9472119"/>
           <a:chExt cx="716211" cy="423979"/>
         </a:xfrm>
@@ -21908,8 +21774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4007970" y="2506384"/>
-          <a:ext cx="723682" cy="423979"/>
+          <a:off x="3990681" y="2515989"/>
+          <a:ext cx="720694" cy="423979"/>
           <a:chOff x="3956643" y="9472119"/>
           <a:chExt cx="716211" cy="423979"/>
         </a:xfrm>
@@ -22491,8 +22357,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4007967" y="3206087"/>
-          <a:ext cx="900618" cy="422655"/>
+          <a:off x="3990678" y="3218893"/>
+          <a:ext cx="897630" cy="426925"/>
           <a:chOff x="3956643" y="9472119"/>
           <a:chExt cx="783917" cy="423979"/>
         </a:xfrm>
@@ -23658,105 +23524,15 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="渠道"/>
-      <sheetName val="期末余额"/>
-      <sheetName val="三条线"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>比例</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>95589</v>
-          </cell>
-          <cell r="B2">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>太平通</v>
-          </cell>
-          <cell r="B3">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>房贷</v>
-          </cell>
-          <cell r="B4">
-            <v>0.44</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>占比</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>上海</v>
-          </cell>
-          <cell r="D2">
-            <v>23.413103684704598</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>江苏</v>
-          </cell>
-          <cell r="D3">
-            <v>23.030525486367001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>广东</v>
-          </cell>
-          <cell r="D4">
-            <v>6.94976675563277</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>其它</v>
-          </cell>
-          <cell r="D5">
-            <v>46.606604073295635</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0158590-795A-416E-951C-3AA2C4A5D81A}" name="表1" displayName="表1" ref="N2:P6" totalsRowShown="0">
-  <autoFilter ref="N2:P6" xr:uid="{A0158590-795A-416E-951C-3AA2C4A5D81A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0158590-795A-416E-951C-3AA2C4A5D81A}" name="表1" displayName="表1" ref="N2:O6" totalsRowShown="0">
+  <autoFilter ref="N2:O6" xr:uid="{A0158590-795A-416E-951C-3AA2C4A5D81A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:O6">
     <sortCondition ref="O2:O6"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{30379786-831B-48B5-A5C2-DF04F541E2F7}" name="重点项目"/>
     <tableColumn id="2" xr3:uid="{22B809E7-0396-4D5C-95FD-227AAD4BBD8D}" name="总数"/>
-    <tableColumn id="3" xr3:uid="{6987FE5F-2849-4C6F-B46B-1FAE962CA544}" name="本月增长" dataDxfId="0">
-      <calculatedColumnFormula>0.2*表1[[#This Row],[总数]]</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24027,8 +23803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="105" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24803,15 +24579,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>69145</v>
@@ -24819,7 +24595,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>57510</v>
@@ -24827,7 +24603,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>56743</v>
@@ -24882,10 +24658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21366B90-EC4C-46F2-B9CF-E1A06A5A3416}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24895,7 +24671,7 @@
     <col min="14" max="14" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -24903,31 +24679,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
         <f ca="1">ROUND(100+500*RAND(),0)</f>
-        <v>571</v>
+        <v>332</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B5" ca="1" si="0">ROUND(100+500*RAND(),0)</f>
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="N3" t="s">
         <v>29</v>
@@ -24935,18 +24708,14 @@
       <c r="O3">
         <v>100</v>
       </c>
-      <c r="P3">
-        <f>0.2*表1[[#This Row],[总数]]</f>
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>432</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -24954,18 +24723,14 @@
       <c r="O4">
         <v>272</v>
       </c>
-      <c r="P4">
-        <f>0.2*表1[[#This Row],[总数]]</f>
-        <v>54.400000000000006</v>
-      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>459</v>
+        <v>291</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
@@ -24973,24 +24738,16 @@
       <c r="O5">
         <v>679</v>
       </c>
-      <c r="P5">
-        <f>0.2*表1[[#This Row],[总数]]</f>
-        <v>135.80000000000001</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="N6" t="s">
         <v>30</v>
       </c>
       <c r="O6">
         <v>1000</v>
       </c>
-      <c r="P6">
-        <f>0.2*表1[[#This Row],[总数]]</f>
-        <v>200</v>
-      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -25001,30 +24758,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15">
         <f ca="1">RAND()/4*$B$21</f>
-        <v>55.372954906353968</v>
+        <v>591.73082399316354</v>
       </c>
       <c r="C15">
         <f ca="1">RAND()/4*$C$21</f>
-        <v>2723.2321684191061</v>
+        <v>1125.7766455816948</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16">
         <f t="shared" ref="B16:B20" ca="1" si="1">RAND()/4*$B$21</f>
-        <v>834.45301866180978</v>
+        <v>892.97732063778881</v>
       </c>
       <c r="C16">
         <f t="shared" ref="C16:C20" ca="1" si="2">RAND()/4*$C$21</f>
-        <v>2053.754336546403</v>
+        <v>1836.3292034830304</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -25033,11 +24790,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>1145.7833964069684</v>
+        <v>1062.6918721343793</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>2033.9497694532818</v>
+        <v>725.31596230793457</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -25046,11 +24803,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>970.59591655933889</v>
+        <v>179.81255615458787</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>2488.4049843460893</v>
+        <v>4167.1045786301211</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -25059,11 +24816,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>290.0706161020355</v>
+        <v>1056.6820335244515</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>3202.5332462055899</v>
+        <v>501.50673844948921</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -25072,11 +24829,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>27.767765292671168</v>
+        <v>1133.2829610170195</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>3152.7196310967965</v>
+        <v>1501.742853255945</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -25175,27 +24932,27 @@
       </c>
       <c r="B2">
         <f ca="1">ROUND(50+100*RAND(),-1)</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <f ca="1">ROUND(100*RAND(),-1)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f ca="1">ROUND(100*RAND(),-1)</f>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <f ca="1">ROUND(50*25+3000*RAND(),-1)</f>
-        <v>3620</v>
+        <v>1370</v>
       </c>
       <c r="F2">
         <f ca="1">ROUND(3000*RAND(),-1)</f>
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(3000*RAND(),-1)</f>
-        <v>1970</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -25204,27 +24961,27 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B12" ca="1" si="0">ROUND(50+100*RAND(),-1)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:D12" ca="1" si="1">ROUND(100*RAND(),-1)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E12" ca="1" si="2">ROUND(50*25+3000*RAND(),-1)</f>
-        <v>2350</v>
+        <v>2710</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:G12" ca="1" si="3">ROUND(3000*RAND(),-1)</f>
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="3"/>
-        <v>1910</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -25233,27 +24990,27 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>4170</v>
+        <v>2140</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>1980</v>
+        <v>340</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>1160</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -25262,27 +25019,27 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>1550</v>
+        <v>2830</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="3"/>
-        <v>1180</v>
+        <v>2220</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>2880</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -25295,19 +25052,19 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
+        <v>1830</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="3"/>
-        <v>810</v>
+        <v>1180</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
@@ -25320,11 +25077,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
@@ -25332,15 +25089,15 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>4200</v>
+        <v>1380</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="3"/>
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>2660</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -25349,11 +25106,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
@@ -25361,15 +25118,15 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>3240</v>
+        <v>3190</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="3"/>
-        <v>2560</v>
+        <v>370</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -25378,27 +25135,27 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>1710</v>
+        <v>2310</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="3"/>
-        <v>2750</v>
+        <v>1350</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>480</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -25407,27 +25164,27 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>2170</v>
+        <v>4180</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="3"/>
-        <v>1480</v>
+        <v>1110</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>1400</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -25436,27 +25193,27 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>4220</v>
+        <v>2610</v>
       </c>
       <c r="F11">
         <f ca="1">ROUND(3000*RAND(),-1)</f>
-        <v>1630</v>
+        <v>2020</v>
       </c>
       <c r="G11">
         <f ca="1">ROUND(3000*RAND(),-1)</f>
-        <v>970</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -25465,37 +25222,37 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>1320</v>
+        <v>3310</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
-        <v>1110</v>
+        <v>1690</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13">
         <f ca="1">SUM(B2:B12)</f>
-        <v>1050</v>
+        <v>1260</v>
       </c>
       <c r="E13">
         <f ca="1">SUM(E2:E12)</f>
-        <v>29950</v>
+        <v>27860</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -25512,14 +25269,14 @@
       </c>
       <c r="C19">
         <f ca="1">B13-C21-C20</f>
-        <v>863.15162536996752</v>
+        <v>995.25365471782106</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19">
         <f ca="1">E13-F20-F21</f>
-        <v>21787.714325323737</v>
+        <v>21097.348185360224</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -25528,14 +25285,14 @@
       </c>
       <c r="C20">
         <f ca="1">0.2*RAND()*B13</f>
-        <v>51.894720895942797</v>
+        <v>148.10551317125413</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20">
         <f ca="1">0.2*RAND()*E13</f>
-        <v>2362.6665789985695</v>
+        <v>1360.3876719954717</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -25544,14 +25301,14 @@
       </c>
       <c r="C21">
         <f ca="1">0.2*RAND()*B13</f>
-        <v>134.95365373408973</v>
+        <v>116.64083211092485</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21">
         <f ca="1">0.2*RAND()*E13</f>
-        <v>5799.6190956776909</v>
+        <v>5402.2641426443051</v>
       </c>
     </row>
   </sheetData>
